--- a/templates/sber.xlsx
+++ b/templates/sber.xlsx
@@ -1755,7 +1755,7 @@
     <row r="10" s="99">
       <c r="B10" s="122" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.11.12.2012-C от 11 Декабря 2012 г.</t>
+          <t>Счет на оплату № 1.01.10.2024-C от 1 Октября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G16" s="127" t="inlineStr">
         <is>
-          <t>qadesdasd sadf ads a</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="AR16" s="100" t="n"/>
@@ -1925,7 +1925,7 @@
     <row r="17" customFormat="1" s="98">
       <c r="G17" s="128" t="inlineStr">
         <is>
-          <t>ИНН 123123123</t>
+          <t>ИНН 23132123</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G19" s="130" t="inlineStr">
         <is>
-          <t>Договор № 1.12/11/11 от 12 Ноября 2011 г.</t>
+          <t>Договор № 1.12/12/02 от 12 Декабря 2002 г.</t>
         </is>
       </c>
       <c r="AR19" s="100" t="n"/>
@@ -2071,7 +2071,7 @@
       <c r="C22" s="137" t="n"/>
       <c r="D22" s="138" t="inlineStr">
         <is>
-          <t>asdasdasd asd asd</t>
+          <t>dsfggs</t>
         </is>
       </c>
       <c r="E22" s="139" t="n"/>
@@ -2107,15 +2107,19 @@
       </c>
       <c r="AD22" s="139" t="n"/>
       <c r="AE22" s="137" t="n"/>
-      <c r="AF22" s="142" t="n">
-        <v>123123.33</v>
+      <c r="AF22" s="142" t="inlineStr">
+        <is>
+          <t>210 020.00</t>
+        </is>
       </c>
       <c r="AG22" s="139" t="n"/>
       <c r="AH22" s="139" t="n"/>
       <c r="AI22" s="139" t="n"/>
       <c r="AJ22" s="137" t="n"/>
-      <c r="AK22" s="143" t="n">
-        <v>123123.33</v>
+      <c r="AK22" s="143" t="inlineStr">
+        <is>
+          <t>210 020.00</t>
+        </is>
       </c>
       <c r="AL22" s="139" t="n"/>
       <c r="AM22" s="139" t="n"/>
@@ -2184,8 +2188,10 @@
         </is>
       </c>
       <c r="AK26" s="130" t="n"/>
-      <c r="AL26" s="148" t="n">
-        <v>123123.33</v>
+      <c r="AL26" s="148" t="inlineStr">
+        <is>
+          <t>210 020.00</t>
+        </is>
       </c>
       <c r="AR26" s="100" t="n"/>
     </row>
@@ -2205,7 +2211,7 @@
     <row r="29" ht="12" customHeight="1" s="99">
       <c r="B29" s="149" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 123 123,33 руб.</t>
+          <t>Всего наименований 1, на сумму 210 020,00 руб.</t>
         </is>
       </c>
       <c r="AR29" s="100" t="n"/>
@@ -2213,7 +2219,7 @@
     <row r="30" s="99">
       <c r="B30" s="150" t="inlineStr">
         <is>
-          <t>Сто двадцать три тысячи сто двадцать три рубля 33 копейки</t>
+          <t>Двести десять тысяч двадцать рублей 00 копеек</t>
         </is>
       </c>
       <c r="AQ30" s="100" t="n"/>

--- a/templates/sber.xlsx
+++ b/templates/sber.xlsx
@@ -1755,7 +1755,7 @@
     <row r="10" s="99">
       <c r="B10" s="122" t="inlineStr">
         <is>
-          <t>Счет на оплату № 1.01.10.2024-C от 1 Октября 2024 г.</t>
+          <t>Счет на оплату № 1.02.10.2024-C от 2 Октября 2024 г.</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
     <row r="17" customFormat="1" s="98">
       <c r="G17" s="128" t="inlineStr">
         <is>
-          <t>ИНН 23132123</t>
+          <t>ИНН 123</t>
         </is>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G19" s="130" t="inlineStr">
         <is>
-          <t>Договор № 1.12/12/02 от 12 Декабря 2002 г.</t>
+          <t>Договор № 1.12/12/45 от 12 Декабря 2012 г.</t>
         </is>
       </c>
       <c r="AR19" s="100" t="n"/>
@@ -2071,7 +2071,7 @@
       <c r="C22" s="137" t="n"/>
       <c r="D22" s="138" t="inlineStr">
         <is>
-          <t>dsfggs</t>
+          <t>asdasd</t>
         </is>
       </c>
       <c r="E22" s="139" t="n"/>
@@ -2109,7 +2109,7 @@
       <c r="AE22" s="137" t="n"/>
       <c r="AF22" s="142" t="inlineStr">
         <is>
-          <t>210 020.00</t>
+          <t>123 123.00 ₽</t>
         </is>
       </c>
       <c r="AG22" s="139" t="n"/>
@@ -2118,7 +2118,7 @@
       <c r="AJ22" s="137" t="n"/>
       <c r="AK22" s="143" t="inlineStr">
         <is>
-          <t>210 020.00</t>
+          <t>123 123.00 ₽</t>
         </is>
       </c>
       <c r="AL22" s="139" t="n"/>
@@ -2190,7 +2190,7 @@
       <c r="AK26" s="130" t="n"/>
       <c r="AL26" s="148" t="inlineStr">
         <is>
-          <t>210 020.00</t>
+          <t>123 123.00 ₽</t>
         </is>
       </c>
       <c r="AR26" s="100" t="n"/>
@@ -2211,7 +2211,7 @@
     <row r="29" ht="12" customHeight="1" s="99">
       <c r="B29" s="149" t="inlineStr">
         <is>
-          <t>Всего наименований 1, на сумму 210 020,00 руб.</t>
+          <t>Всего наименований 1, на сумму 123 123,00 руб.</t>
         </is>
       </c>
       <c r="AR29" s="100" t="n"/>
@@ -2219,7 +2219,7 @@
     <row r="30" s="99">
       <c r="B30" s="150" t="inlineStr">
         <is>
-          <t>Двести десять тысяч двадцать рублей 00 копеек</t>
+          <t>Сто двадцать три тысячи сто двадцать три рубля 00 копеек</t>
         </is>
       </c>
       <c r="AQ30" s="100" t="n"/>
